--- a/biology/Botanique/Accord_international_sur_le_caoutchouc/Accord_international_sur_le_caoutchouc.xlsx
+++ b/biology/Botanique/Accord_international_sur_le_caoutchouc/Accord_international_sur_le_caoutchouc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accord international sur le caoutchouc, signé en 1979 sous l'égide de l'ONU, est un des grands Accords internationaux de produits signés au XXe siècle dans le domaine des matières premières.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la Seconde Guerre mondiale, le caoutchouc naturel, produit agricole des pays en développement, est en compétition avec les caoutchouc de synthème produit par les industriels à base de produits pétroliers, ce qui force les producteurs et les consommateurs à un compromis pour éviter que les planteurs ne l'abandonnent et déclenchent ainsi une hausse des prix le rendant moins compétitif. Le caoutchouc naturel réussit cependant à garder un tiers du marché depuis 1970[1].
-L'accord international, signé en 1979 entre les producteurs et les consommateurs, s'est donné des objectifs à la réduction des fluctuations des cours de l'hévéa, en utilisant un stock régulateur. Il a favorisé la progression du caoutchouc naturel dans l'industrie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la Seconde Guerre mondiale, le caoutchouc naturel, produit agricole des pays en développement, est en compétition avec les caoutchouc de synthème produit par les industriels à base de produits pétroliers, ce qui force les producteurs et les consommateurs à un compromis pour éviter que les planteurs ne l'abandonnent et déclenchent ainsi une hausse des prix le rendant moins compétitif. Le caoutchouc naturel réussit cependant à garder un tiers du marché depuis 1970.
+L'accord international, signé en 1979 entre les producteurs et les consommateurs, s'est donné des objectifs à la réduction des fluctuations des cours de l'hévéa, en utilisant un stock régulateur. Il a favorisé la progression du caoutchouc naturel dans l'industrie.
 </t>
         </is>
       </c>
